--- a/results/comparaison/azimuth_prism_cv.xlsx
+++ b/results/comparaison/azimuth_prism_cv.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:61">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -403,8 +403,158 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:61">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -438,75 +588,322 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:61">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>79.8536748998774</v>
-      </c>
       <c r="C3">
-        <v>81.78913542868889</v>
+        <v>73.66320204601175</v>
       </c>
       <c r="D3">
-        <v>54.74145289088551</v>
+        <v>40.42943473415731</v>
       </c>
       <c r="E3">
-        <v>17.15933773799765</v>
+        <v>68.01792579002176</v>
       </c>
       <c r="F3">
-        <v>8.7356211660898</v>
+        <v>54.47870416557703</v>
       </c>
       <c r="G3">
-        <v>33.94130963873171</v>
+        <v>36.41709716596259</v>
       </c>
       <c r="H3">
-        <v>34.77262941164439</v>
+        <v>26.44413727882596</v>
       </c>
       <c r="I3">
-        <v>24.04880608066028</v>
+        <v>14.69444420976657</v>
       </c>
       <c r="J3">
-        <v>29.08200836625721</v>
+        <v>56.84704519562297</v>
       </c>
       <c r="K3">
-        <v>43.45547870402871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>59.77864027640263</v>
-      </c>
-      <c r="C4">
-        <v>61.6920245906294</v>
-      </c>
-      <c r="D4">
-        <v>42.82358390368381</v>
-      </c>
-      <c r="E4">
-        <v>2.314595859352607</v>
-      </c>
-      <c r="F4">
-        <v>15.1728265277724</v>
-      </c>
-      <c r="G4">
-        <v>39.74923462017451</v>
-      </c>
-      <c r="H4">
-        <v>38.52357483947928</v>
-      </c>
-      <c r="I4">
-        <v>26.27730508749488</v>
-      </c>
-      <c r="J4">
-        <v>34.16794580546662</v>
-      </c>
-      <c r="K4">
-        <v>45.65349670844742</v>
+        <v>8.252134683568698</v>
+      </c>
+      <c r="L3">
+        <v>9.81557253368311</v>
+      </c>
+      <c r="M3">
+        <v>43.86274395925665</v>
+      </c>
+      <c r="N3">
+        <v>56.26296758042932</v>
+      </c>
+      <c r="O3">
+        <v>30.73862871005039</v>
+      </c>
+      <c r="P3">
+        <v>24.13646709537724</v>
+      </c>
+      <c r="Q3">
+        <v>4.905795708352002</v>
+      </c>
+      <c r="R3">
+        <v>15.63298138225448</v>
+      </c>
+      <c r="S3">
+        <v>7.333129232292094</v>
+      </c>
+      <c r="T3">
+        <v>21.93457600953126</v>
+      </c>
+      <c r="U3">
+        <v>22.34591904987361</v>
+      </c>
+      <c r="V3">
+        <v>16.63138199679649</v>
+      </c>
+      <c r="W3">
+        <v>15.2611879056245</v>
+      </c>
+      <c r="X3">
+        <v>34.12082228154338</v>
+      </c>
+      <c r="Y3">
+        <v>21.99999243448136</v>
+      </c>
+      <c r="Z3">
+        <v>23.62795654278452</v>
+      </c>
+      <c r="AA3">
+        <v>8.377444152063788</v>
+      </c>
+      <c r="AB3">
+        <v>27.16586162960432</v>
+      </c>
+      <c r="AC3">
+        <v>68.77308554808064</v>
+      </c>
+      <c r="AD3">
+        <v>37.16768683081452</v>
+      </c>
+      <c r="AE3">
+        <v>4.975338580107206</v>
+      </c>
+      <c r="AF3">
+        <v>51.28398334822775</v>
+      </c>
+      <c r="AI3">
+        <v>35.9208003234922</v>
+      </c>
+      <c r="AJ3">
+        <v>32.22627915832281</v>
+      </c>
+      <c r="AK3">
+        <v>76.57131589684941</v>
+      </c>
+      <c r="AL3">
+        <v>8.171631077103669</v>
+      </c>
+      <c r="AM3">
+        <v>1.506214546966305</v>
+      </c>
+      <c r="AN3">
+        <v>16.01511274802044</v>
+      </c>
+      <c r="AO3">
+        <v>10.0543726008905</v>
+      </c>
+      <c r="AP3">
+        <v>12.13085121528829</v>
+      </c>
+      <c r="AQ3">
+        <v>7.202421930968811</v>
+      </c>
+      <c r="AS3">
+        <v>4.819018485819612</v>
+      </c>
+      <c r="AT3">
+        <v>22.75015443207721</v>
+      </c>
+      <c r="AU3">
+        <v>32.77272443662599</v>
+      </c>
+      <c r="AV3">
+        <v>6.53553243620641</v>
+      </c>
+      <c r="AW3">
+        <v>35.06626561061609</v>
+      </c>
+      <c r="AZ3">
+        <v>16.97974553072737</v>
+      </c>
+      <c r="BA3">
+        <v>9.153502380407076</v>
+      </c>
+      <c r="BB3">
+        <v>19.12413156551122</v>
+      </c>
+      <c r="BC3">
+        <v>7.969499766024384</v>
+      </c>
+      <c r="BD3">
+        <v>16.123752077901</v>
+      </c>
+      <c r="BE3">
+        <v>11.7732198655971</v>
+      </c>
+      <c r="BF3">
+        <v>12.55358088498313</v>
+      </c>
+      <c r="BG3">
+        <v>7.404668678131671</v>
+      </c>
+      <c r="BH3">
+        <v>25.68781677856217</v>
+      </c>
+      <c r="BI3">
+        <v>11.28083838129112</v>
       </c>
     </row>
   </sheetData>
